--- a/tests/files/incorrect_data.xlsx
+++ b/tests/files/incorrect_data.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Surcharge</t>
   </si>
@@ -37,7 +37,7 @@
     <t>BL Fee</t>
   </si>
   <si>
-    <t>MSC</t>
+    <t>MSC--</t>
   </si>
   <si>
     <t>USD</t>
@@ -45,112 +45,16 @@
   <si>
     <t>freight</t>
   </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>CMA CGM</t>
-  </si>
-  <si>
-    <t>MAERSK</t>
-  </si>
-  <si>
-    <t>Bill of Lading (BL)</t>
-  </si>
-  <si>
-    <t>YML</t>
-  </si>
-  <si>
-    <t>Ocean Freight</t>
-  </si>
-  <si>
-    <t>Ocean Freight Charge</t>
-  </si>
-  <si>
-    <t>Basic Freight</t>
-  </si>
-  <si>
-    <t>Terminal Handling Charge Origin</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>Terminal Handling Charge</t>
-  </si>
-  <si>
-    <t>Terminal Handling Charge Destination</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t>Bunker Adjustment Charge</t>
-  </si>
-  <si>
-    <t>Bunker Adjustment</t>
-  </si>
-  <si>
-    <t>Bunker Adjustment Fee</t>
-  </si>
-  <si>
-    <t>Doc fee</t>
-  </si>
-  <si>
-    <t>Documentation fee</t>
-  </si>
-  <si>
-    <t>SEALAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak Season Adjustment Factor </t>
-  </si>
-  <si>
-    <t>Peak Season</t>
-  </si>
-  <si>
-    <t>Peak Season Surcharge</t>
-  </si>
-  <si>
-    <t>Booking fee</t>
-  </si>
-  <si>
-    <t>Port Charges Import</t>
-  </si>
-  <si>
-    <t>Port Charges Export</t>
-  </si>
-  <si>
-    <t>HAPAG LLOYD</t>
-  </si>
-  <si>
-    <t>Overweight</t>
-  </si>
-  <si>
-    <t>EVERGREEN</t>
-  </si>
-  <si>
-    <t>COSCO</t>
-  </si>
-  <si>
-    <t>Overweight surcharge</t>
-  </si>
-  <si>
-    <t>T3 Origin</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -181,6 +85,125 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -189,51 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -250,43 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,43 +235,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -341,13 +245,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,169 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,6 +436,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,6 +478,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -570,41 +498,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,151 +525,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,10 +948,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E959"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
@@ -1090,703 +994,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
-        <v>150</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>130</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1250</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3">
-        <v>120</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3">
-        <v>110</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3">
-        <v>100</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3">
-        <v>50</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="3">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3">
-        <v>50</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3">
-        <v>30</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="3">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3">
-        <v>45</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3">
-        <v>45</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="3">
-        <v>60</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3">
-        <v>50</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="3">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="3">
-        <v>30</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="3">
-        <v>30</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="3">
-        <v>100</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3">
-        <v>105</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="3">
-        <v>120</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="3">
-        <v>120</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="3">
-        <v>200</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="3">
-        <v>200</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="3">
-        <v>225</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="3">
-        <v>80</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="3">
-        <v>90</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="3">
-        <v>95</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="3" ht="12.75" customHeight="1"/>
+    <row r="4" ht="12.75" customHeight="1"/>
+    <row r="5" ht="12.75" customHeight="1"/>
+    <row r="6" ht="12.75" customHeight="1"/>
+    <row r="7" ht="12.75" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1"/>
+    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
     <row r="44" ht="12.75" customHeight="1"/>
     <row r="45" ht="12.75" customHeight="1"/>
     <row r="46" ht="12.75" customHeight="1"/>
@@ -2703,49 +1951,8 @@
     <row r="957" ht="12.75" customHeight="1"/>
     <row r="958" ht="12.75" customHeight="1"/>
     <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:E43">
+  <autoFilter ref="A1:E2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
